--- a/test/2_output.xlsx
+++ b/test/2_output.xlsx
@@ -26,18 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -64,11 +58,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,815 +435,1200 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Spirometry-Plethysmography</t>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Spirometry</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Plethysmography</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pre</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
+          <t>Pré</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Post</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Norme</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Mes.%Norme</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
           <t>Mes.</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>%Norme_</t>
+        </is>
+      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Dif.Pre%%Norme</t>
+          <t>Pré%</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>%Norme</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Resistance</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Résistance</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>SGAW(1/S*cmH2O)</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>“SGAW(1/S*cmH20)</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>0,12</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>187,41</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>GAW(L/S*cmH2O)</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>0,45</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>GAW(L/S*cemH20)</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+          <t>052</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>oa</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>117,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>SRAW(cmH2O*s)</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>8,58</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>53,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RAW(cmH2O/L/S)</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>2,24</t>
+          <t>SRAW(cmH20*s)</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>858</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
+          <t>458</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>53,36</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RAW(cmH20/L/S)</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>224)</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>191)</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>85,34</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>VGT (raw)(L)</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>3,60</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>2,40</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>66,70</t>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Volume plethysmographie</t>
+          <t>“Ver</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>(raw)(L)</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>3,60</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>2,40</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>66,70)</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>VGT(L)</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>3,60</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>112,72</t>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>plethysmographie</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CPT(L)</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>7,62</t>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>3,60</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>6,84</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>89,73</t>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>VR(L)</t>
+          <t>[vert</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
+          <t>112,72|</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>T=</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>jormt</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>6,84</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>89,73</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>val)</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>1,64</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>77,75</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>VR/CPT(%)</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>27,75</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>24,04</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D16" s="1" t="inlineStr">
         <is>
           <t>86,65</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>CV(L)</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>cL)</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>96,47</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CV</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>(cpt)(L)</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>5,38</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="D18" s="1" t="inlineStr">
         <is>
           <t>5,19</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="E18" s="1" t="inlineStr">
         <is>
           <t>96,47</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>CVcpt)L</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>5,38</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>5,19</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>96,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>VRE(cpt)(L)</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>162,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>VRI(cpt)(L)</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>1,70</t>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Spirometrie forcee</t>
+          <t>VRE(cpt)(L)</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>148)</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>162,58</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>——</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>vaitept)(t)</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>000}</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Spirométrie</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>foreée</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>CVF(L)</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>565|</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>4,94</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>87,38</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>4,94</t>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>87,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>494)</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>0,08)</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>87,45,</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>VEMs(L)</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>4,49</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>78,28</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>3,68</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>449)</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>7828</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>368)</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>4,69</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>81,95</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>VIMs(L)</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>ViMs(L)</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>9,00)</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>2,68</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>145,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>VEMs/CVF%)</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>79,88</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>145,21]</t>
+        </is>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>VEMs/CVF(%)</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>79,88}</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>71,15</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D26" s="1" t="inlineStr">
         <is>
           <t>89,07</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E26" s="1" t="inlineStr">
         <is>
           <t>74,43</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>4,61</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>93,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>DEP(L/S)</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>9,62</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>76,73</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>7,78</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>5,38</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>80,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>DEM(L/S)</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>60,82</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
-        <is>
-          <t>11,71</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>67,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>D25(L/S)</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>56,57</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>1,10</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>-17,88</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>46,46</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>D50(L/S)</t>
+          <t>|</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>5,31</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>68,40</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>-8,38</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>62,67</t>
+          <t>DEP(L/S)</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>9,62</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>76,73</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>7,78</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>5,38</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>80,86</t>
+        </is>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>D75(L/S)</t>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>DEM(L/S)</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>84,83</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>7,42</t>
+          <t>423/257,</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>6082287</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>14,71)</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>4,83</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>88,92</t>
+          <t>67,95)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Diffusion</t>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>D2sil/s)</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>236/</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>1,33)</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>5657</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>-17,88|</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>46,46</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>VI(L)</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>5,15</t>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DSO(L/S)</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>531|</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>363</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>96,61</t>
+          <t>6840</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>8,38</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>62,67</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>VA(L)</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>7,26</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>102,30</t>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>|</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>DLCO(mL/mmHg/Mi)</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
+          <t>|</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>D75(L/S)</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>8,34</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>84,83</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>4,83</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>88,92,</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>muy</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>5,15|</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>498)</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>9661)</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>—-</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>—-[-]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>(VAL)</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>7,26</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>7,43)</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>102,30</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>-—</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>|=</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>DLCo(mL/mmHg/Mi)</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>33,05|</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>24,82|</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>75,11</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>-—~</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="1" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>KCO(DLCO/L)</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>458)</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>3,34)</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>72,93,</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>|=]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>DLCO</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>cor(t)</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
         <is>
           <t>33,05</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>24,82</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>24,82,</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
         <is>
           <t>75,11</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>KCO(DLCO/L)</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>KCO</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>cor(mL/mmHg/Mi)</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>|__</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
         <is>
           <t>3,34</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>72,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>DLCO corL)</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>33,05</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>24,82</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>75,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>KCO cormL/mmHg/Mi</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>|</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>72,93</t>
         </is>
